--- a/biology/Botanique/Pavot_nudicaule/Pavot_nudicaule.xlsx
+++ b/biology/Botanique/Pavot_nudicaule/Pavot_nudicaule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pavot d'Islande
-Le Pavot d'Islande (Papaver nudicaule L.) est une espèce de plantes herbacées ornementales de la famille des Papavéracées. Les fleurs ont quatre pétales, de couleurs variées. La floraison a lieu au printemps et en hiver[4].
+Le Pavot d'Islande (Papaver nudicaule L.) est une espèce de plantes herbacées ornementales de la famille des Papavéracées. Les fleurs ont quatre pétales, de couleurs variées. La floraison a lieu au printemps et en hiver.
 			Vue d'ensemble
 			Fleur épanouie, en bouton et jeune fruit
 			Fruits
@@ -517,13 +529,15 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (18 mars 2019)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (18 mars 2019) :
 Papaver nudicaule var. microcarpum
-Selon NCBI  (18 mars 2019)[6] :
+Selon NCBI  (18 mars 2019) :
 Papaver nudicaule var. aquilegioides Fedde
-Selon Tropicos                                           (18 mars 2019)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 Papaver nudicaule subsp. americanum Rändel ex D.F. Murray
 Papaver nudicaule subsp. amurense N. Busch
 Papaver nudicaule subsp. insulare Petrovsky
